--- a/r5-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T10:55:15+00:00</t>
+    <t>2024-02-17T11:07:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T11:07:47+00:00</t>
+    <t>2024-02-17T11:16:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T11:16:35+00:00</t>
+    <t>2024-02-17T11:28:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T11:28:57+00:00</t>
+    <t>2024-02-17T14:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T14:54:31+00:00</t>
+    <t>2024-02-19T19:55:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:06:09+00:00</t>
+    <t>2024-05-03T09:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:16:39+00:00</t>
+    <t>2024-05-03T09:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:40:54+00:00</t>
+    <t>2024-05-03T10:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T10:09:53+00:00</t>
+    <t>2024-05-03T10:46:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9629" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9629" uniqueCount="985">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T14:44:22+00:00</t>
+    <t>2024-05-06T14:59:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1044,9 +1044,6 @@
   </si>
   <si>
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Social Security Number</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1297,9 +1294,6 @@
     <t>Patient.identifier:bPK.type.coding.display</t>
   </si>
   <si>
-    <t>National unique individual identifier</t>
-  </si>
-  <si>
     <t>Patient.identifier:bPK.type.coding.userSelected</t>
   </si>
   <si>
@@ -1397,9 +1391,6 @@
   </si>
   <si>
     <t>Patient.identifier:localPatientId.type.coding.display</t>
-  </si>
-  <si>
-    <t>Patient internal identifier</t>
   </si>
   <si>
     <t>Patient.identifier:localPatientId.type.coding.userSelected</t>
@@ -9359,49 +9350,49 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -9422,16 +9413,16 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>82</v>
@@ -9439,10 +9430,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -9465,19 +9456,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -9526,7 +9517,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -9547,16 +9538,16 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>82</v>
@@ -9564,10 +9555,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9593,16 +9584,16 @@
         <v>252</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -9651,7 +9642,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -9672,16 +9663,16 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>82</v>
@@ -9689,7 +9680,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>242</v>
@@ -9718,7 +9709,7 @@
         <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>244</v>
@@ -9734,7 +9725,7 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>82</v>
@@ -9791,7 +9782,7 @@
         <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
@@ -9814,7 +9805,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>251</v>
@@ -9914,7 +9905,7 @@
         <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>82</v>
@@ -9937,7 +9928,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>261</v>
@@ -10058,7 +10049,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>267</v>
@@ -10181,10 +10172,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -10302,10 +10293,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -10425,10 +10416,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -10454,13 +10445,13 @@
         <v>252</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -10510,16 +10501,16 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>104</v>
@@ -10548,10 +10539,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10577,13 +10568,13 @@
         <v>106</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -10612,28 +10603,28 @@
         <v>183</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -10671,10 +10662,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10700,13 +10691,13 @@
         <v>213</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -10756,16 +10747,16 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI60" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>104</v>
@@ -10777,7 +10768,7 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -10794,10 +10785,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10823,13 +10814,13 @@
         <v>252</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10837,50 +10828,50 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="S61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
@@ -10888,7 +10879,7 @@
         <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>104</v>
@@ -10917,13 +10908,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>212</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>82</v>
@@ -11042,7 +11033,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>223</v>
@@ -11163,7 +11154,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>224</v>
@@ -11286,7 +11277,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>225</v>
@@ -11411,7 +11402,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>234</v>
@@ -11534,7 +11525,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>282</v>
@@ -11655,7 +11646,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>284</v>
@@ -11778,7 +11769,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>286</v>
@@ -11903,7 +11894,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>296</v>
@@ -12024,7 +12015,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>298</v>
@@ -12147,7 +12138,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>300</v>
@@ -12272,7 +12263,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>310</v>
@@ -12395,7 +12386,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>318</v>
@@ -12438,7 +12429,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>82</v>
@@ -12518,7 +12509,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>328</v>
@@ -12561,7 +12552,7 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>82</v>
@@ -12603,7 +12594,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -12624,16 +12615,16 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP75" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AQ75" t="s" s="2">
         <v>82</v>
@@ -12641,10 +12632,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12667,19 +12658,19 @@
         <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -12728,7 +12719,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -12749,16 +12740,16 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP76" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AQ76" t="s" s="2">
         <v>82</v>
@@ -12766,10 +12757,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12795,16 +12786,16 @@
         <v>252</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -12853,7 +12844,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -12874,16 +12865,16 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP77" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AQ77" t="s" s="2">
         <v>82</v>
@@ -12891,7 +12882,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>242</v>
@@ -12920,7 +12911,7 @@
         <v>106</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>244</v>
@@ -12936,7 +12927,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>82</v>
@@ -12993,7 +12984,7 @@
         <v>104</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
@@ -13016,7 +13007,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>251</v>
@@ -13116,7 +13107,7 @@
         <v>104</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
@@ -13139,7 +13130,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>261</v>
@@ -13260,7 +13251,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>267</v>
@@ -13383,10 +13374,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13504,10 +13495,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13627,10 +13618,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13656,13 +13647,13 @@
         <v>252</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -13712,16 +13703,16 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI84" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>104</v>
@@ -13750,10 +13741,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13779,13 +13770,13 @@
         <v>106</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -13814,28 +13805,28 @@
         <v>183</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Z85" t="s" s="2">
+      <c r="AA85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF85" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -13873,10 +13864,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13902,13 +13893,13 @@
         <v>213</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -13958,16 +13949,16 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI86" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>104</v>
@@ -13979,7 +13970,7 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
@@ -13996,10 +13987,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -14025,13 +14016,13 @@
         <v>252</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -14039,7 +14030,7 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>82</v>
@@ -14081,7 +14072,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -14090,7 +14081,7 @@
         <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>104</v>
@@ -14119,13 +14110,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>212</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>82</v>
@@ -14244,7 +14235,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>223</v>
@@ -14365,7 +14356,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>224</v>
@@ -14488,7 +14479,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>225</v>
@@ -14613,7 +14604,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>234</v>
@@ -14736,7 +14727,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>282</v>
@@ -14857,7 +14848,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>284</v>
@@ -14980,7 +14971,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>286</v>
@@ -15105,7 +15096,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>296</v>
@@ -15226,7 +15217,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>298</v>
@@ -15349,7 +15340,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>300</v>
@@ -15474,7 +15465,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>310</v>
@@ -15597,7 +15588,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>318</v>
@@ -15640,7 +15631,7 @@
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>82</v>
@@ -15720,7 +15711,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>328</v>
@@ -15763,7 +15754,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>82</v>
@@ -15805,7 +15796,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -15826,16 +15817,16 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP101" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AQ101" t="s" s="2">
         <v>82</v>
@@ -15843,10 +15834,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15869,19 +15860,19 @@
         <v>93</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15930,7 +15921,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15951,16 +15942,16 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP102" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AQ102" t="s" s="2">
         <v>82</v>
@@ -15968,10 +15959,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15997,16 +15988,16 @@
         <v>252</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -16055,7 +16046,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -16076,16 +16067,16 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP103" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP103" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AQ103" t="s" s="2">
         <v>82</v>
@@ -16093,7 +16084,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>242</v>
@@ -16122,7 +16113,7 @@
         <v>106</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>244</v>
@@ -16195,7 +16186,7 @@
         <v>104</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>82</v>
@@ -16218,7 +16209,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>251</v>
@@ -16318,7 +16309,7 @@
         <v>104</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>82</v>
@@ -16341,7 +16332,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>261</v>
@@ -16462,7 +16453,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>267</v>
@@ -16585,10 +16576,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16611,26 +16602,26 @@
         <v>93</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O108" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="P108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q108" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N108" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q108" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="R108" t="s" s="2">
         <v>82</v>
       </c>
@@ -16674,7 +16665,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -16692,13 +16683,13 @@
         <v>157</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>157</v>
@@ -16712,10 +16703,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16738,19 +16729,19 @@
         <v>93</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16799,7 +16790,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16814,22 +16805,22 @@
         <v>104</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AP109" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AQ109" t="s" s="2">
         <v>82</v>
@@ -16837,10 +16828,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16958,10 +16949,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -17081,10 +17072,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -17110,16 +17101,16 @@
         <v>112</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O112" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -17147,10 +17138,10 @@
         <v>116</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -17168,7 +17159,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -17189,7 +17180,7 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>82</v>
@@ -17198,7 +17189,7 @@
         <v>82</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AQ112" t="s" s="2">
         <v>82</v>
@@ -17206,10 +17197,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -17235,16 +17226,16 @@
         <v>252</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O113" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -17293,7 +17284,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -17314,7 +17305,7 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>
@@ -17323,7 +17314,7 @@
         <v>82</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AQ113" t="s" s="2">
         <v>82</v>
@@ -17331,14 +17322,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -17360,13 +17351,13 @@
         <v>252</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -17416,7 +17407,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -17431,13 +17422,13 @@
         <v>104</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>82</v>
@@ -17446,7 +17437,7 @@
         <v>82</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AQ114" t="s" s="2">
         <v>82</v>
@@ -17454,14 +17445,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -17483,13 +17474,13 @@
         <v>252</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -17539,7 +17530,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -17554,13 +17545,13 @@
         <v>104</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>82</v>
@@ -17569,7 +17560,7 @@
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AQ115" t="s" s="2">
         <v>82</v>
@@ -17577,10 +17568,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -17606,10 +17597,10 @@
         <v>252</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -17660,7 +17651,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -17675,13 +17666,13 @@
         <v>104</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
@@ -17690,7 +17681,7 @@
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AQ116" t="s" s="2">
         <v>82</v>
@@ -17698,10 +17689,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17727,10 +17718,10 @@
         <v>252</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -17781,7 +17772,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17796,13 +17787,13 @@
         <v>104</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
@@ -17811,7 +17802,7 @@
         <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AQ117" t="s" s="2">
         <v>82</v>
@@ -17819,10 +17810,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17848,14 +17839,14 @@
         <v>195</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -17904,7 +17895,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17925,7 +17916,7 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>82</v>
@@ -17934,7 +17925,7 @@
         <v>82</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AQ118" t="s" s="2">
         <v>82</v>
@@ -17942,10 +17933,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17968,19 +17959,19 @@
         <v>93</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -18029,7 +18020,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -18050,16 +18041,16 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AP119" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AP119" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AQ119" t="s" s="2">
         <v>82</v>
@@ -18067,10 +18058,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -18188,10 +18179,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -18311,10 +18302,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -18340,10 +18331,10 @@
         <v>112</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -18373,49 +18364,49 @@
         <v>116</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI122" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>82</v>
@@ -18424,7 +18415,7 @@
         <v>82</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AQ122" t="s" s="2">
         <v>82</v>
@@ -18432,10 +18423,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -18461,16 +18452,16 @@
         <v>252</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O123" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -18519,7 +18510,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -18528,19 +18519,19 @@
         <v>92</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>82</v>
@@ -18549,7 +18540,7 @@
         <v>82</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AQ123" t="s" s="2">
         <v>82</v>
@@ -18557,10 +18548,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -18586,16 +18577,16 @@
         <v>112</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O124" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -18623,10 +18614,10 @@
         <v>116</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>82</v>
@@ -18644,7 +18635,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -18659,13 +18650,13 @@
         <v>104</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>82</v>
@@ -18674,7 +18665,7 @@
         <v>82</v>
       </c>
       <c r="AP124" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AQ124" t="s" s="2">
         <v>82</v>
@@ -18682,10 +18673,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -18708,16 +18699,16 @@
         <v>93</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N125" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -18767,7 +18758,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -18805,10 +18796,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18834,10 +18825,10 @@
         <v>195</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18888,7 +18879,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18909,7 +18900,7 @@
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>82</v>
@@ -18926,10 +18917,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18955,16 +18946,16 @@
         <v>112</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="O127" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18992,10 +18983,10 @@
         <v>116</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>82</v>
@@ -19013,7 +19004,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -19028,22 +19019,22 @@
         <v>104</v>
       </c>
       <c r="AK127" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AO127" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AL127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM127" t="s" s="2">
+      <c r="AP127" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AP127" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AQ127" t="s" s="2">
         <v>82</v>
@@ -19051,10 +19042,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -19080,10 +19071,10 @@
         <v>252</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -19172,10 +19163,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -19291,13 +19282,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>82</v>
@@ -19319,13 +19310,13 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -19414,10 +19405,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -19443,10 +19434,10 @@
         <v>112</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -19497,7 +19488,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -19535,10 +19526,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -19561,19 +19552,19 @@
         <v>93</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="O132" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -19622,7 +19613,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -19637,33 +19628,33 @@
         <v>104</v>
       </c>
       <c r="AK132" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AO132" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AL132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM132" t="s" s="2">
+      <c r="AP132" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="AN132" t="s" s="2">
+      <c r="AQ132" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AP132" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AQ132" t="s" s="2">
-        <v>620</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19686,19 +19677,19 @@
         <v>93</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N133" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -19735,17 +19726,17 @@
         <v>82</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AC133" s="2"/>
       <c r="AD133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -19766,7 +19757,7 @@
         <v>82</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>82</v>
@@ -19775,7 +19766,7 @@
         <v>157</v>
       </c>
       <c r="AP133" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AQ133" t="s" s="2">
         <v>82</v>
@@ -19783,13 +19774,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>82</v>
@@ -19811,19 +19802,19 @@
         <v>93</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="O134" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -19872,7 +19863,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19887,13 +19878,13 @@
         <v>104</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>82</v>
@@ -19902,7 +19893,7 @@
         <v>157</v>
       </c>
       <c r="AP134" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AQ134" t="s" s="2">
         <v>82</v>
@@ -19910,13 +19901,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19938,19 +19929,19 @@
         <v>93</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="O135" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19999,7 +19990,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -20014,13 +20005,13 @@
         <v>104</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
@@ -20029,7 +20020,7 @@
         <v>157</v>
       </c>
       <c r="AP135" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AQ135" t="s" s="2">
         <v>82</v>
@@ -20037,10 +20028,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -20063,19 +20054,19 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -20124,7 +20115,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -20136,7 +20127,7 @@
         <v>82</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>82</v>
@@ -20145,7 +20136,7 @@
         <v>82</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>82</v>
@@ -20154,7 +20145,7 @@
         <v>82</v>
       </c>
       <c r="AP136" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AQ136" t="s" s="2">
         <v>82</v>
@@ -20162,10 +20153,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -20283,10 +20274,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -20406,10 +20397,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -20435,16 +20426,16 @@
         <v>112</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="O139" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -20457,7 +20448,7 @@
         <v>82</v>
       </c>
       <c r="T139" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="U139" t="s" s="2">
         <v>82</v>
@@ -20472,10 +20463,10 @@
         <v>116</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -20493,7 +20484,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -20508,13 +20499,13 @@
         <v>104</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>82</v>
@@ -20523,7 +20514,7 @@
         <v>82</v>
       </c>
       <c r="AP139" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AQ139" t="s" s="2">
         <v>82</v>
@@ -20531,10 +20522,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -20560,13 +20551,13 @@
         <v>112</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -20580,7 +20571,7 @@
         <v>82</v>
       </c>
       <c r="T140" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="U140" t="s" s="2">
         <v>82</v>
@@ -20595,10 +20586,10 @@
         <v>116</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -20616,7 +20607,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -20637,7 +20628,7 @@
         <v>82</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
@@ -20646,7 +20637,7 @@
         <v>82</v>
       </c>
       <c r="AP140" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AQ140" t="s" s="2">
         <v>82</v>
@@ -20654,10 +20645,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -20683,16 +20674,16 @@
         <v>252</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -20705,7 +20696,7 @@
         <v>82</v>
       </c>
       <c r="T141" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="U141" t="s" s="2">
         <v>82</v>
@@ -20741,7 +20732,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20756,13 +20747,13 @@
         <v>104</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>82</v>
@@ -20771,7 +20762,7 @@
         <v>82</v>
       </c>
       <c r="AP141" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AQ141" t="s" s="2">
         <v>82</v>
@@ -20779,10 +20770,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20808,10 +20799,10 @@
         <v>252</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20826,7 +20817,7 @@
         <v>82</v>
       </c>
       <c r="T142" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="U142" t="s" s="2">
         <v>82</v>
@@ -20862,7 +20853,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20877,13 +20868,13 @@
         <v>104</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>82</v>
@@ -20892,7 +20883,7 @@
         <v>82</v>
       </c>
       <c r="AP142" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="AQ142" t="s" s="2">
         <v>82</v>
@@ -20900,10 +20891,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20929,10 +20920,10 @@
         <v>252</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -21021,10 +21012,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -21140,13 +21131,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -21168,13 +21159,13 @@
         <v>82</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -21246,7 +21237,7 @@
         <v>82</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
@@ -21263,13 +21254,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>82</v>
@@ -21291,13 +21282,13 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -21369,7 +21360,7 @@
         <v>82</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>82</v>
@@ -21386,13 +21377,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>82</v>
@@ -21414,13 +21405,13 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -21492,7 +21483,7 @@
         <v>82</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>82</v>
@@ -21509,13 +21500,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -21537,13 +21528,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -21632,10 +21623,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21661,10 +21652,10 @@
         <v>252</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -21688,7 +21679,7 @@
         <v>82</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="X149" t="s" s="2">
         <v>82</v>
@@ -21715,7 +21706,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21753,14 +21744,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -21782,10 +21773,10 @@
         <v>252</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21800,7 +21791,7 @@
         <v>82</v>
       </c>
       <c r="T150" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="U150" t="s" s="2">
         <v>82</v>
@@ -21836,7 +21827,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21851,13 +21842,13 @@
         <v>104</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>82</v>
@@ -21866,7 +21857,7 @@
         <v>82</v>
       </c>
       <c r="AP150" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AQ150" t="s" s="2">
         <v>82</v>
@@ -21874,14 +21865,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21903,13 +21894,13 @@
         <v>252</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21923,7 +21914,7 @@
         <v>82</v>
       </c>
       <c r="T151" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="U151" t="s" s="2">
         <v>82</v>
@@ -21959,7 +21950,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21980,7 +21971,7 @@
         <v>82</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
@@ -21989,7 +21980,7 @@
         <v>82</v>
       </c>
       <c r="AP151" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="AQ151" t="s" s="2">
         <v>82</v>
@@ -21997,14 +21988,14 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -22026,10 +22017,10 @@
         <v>252</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -22080,7 +22071,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -22095,13 +22086,13 @@
         <v>104</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>82</v>
@@ -22110,7 +22101,7 @@
         <v>82</v>
       </c>
       <c r="AP152" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="AQ152" t="s" s="2">
         <v>82</v>
@@ -22118,14 +22109,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -22147,10 +22138,10 @@
         <v>252</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -22165,7 +22156,7 @@
         <v>82</v>
       </c>
       <c r="T153" t="s" s="2">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="U153" t="s" s="2">
         <v>82</v>
@@ -22201,7 +22192,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -22216,13 +22207,13 @@
         <v>104</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>82</v>
@@ -22231,7 +22222,7 @@
         <v>82</v>
       </c>
       <c r="AP153" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="AQ153" t="s" s="2">
         <v>82</v>
@@ -22239,10 +22230,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -22268,13 +22259,13 @@
         <v>252</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -22324,7 +22315,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -22339,13 +22330,13 @@
         <v>104</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>82</v>
@@ -22354,7 +22345,7 @@
         <v>82</v>
       </c>
       <c r="AP154" t="s" s="2">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="AQ154" t="s" s="2">
         <v>82</v>
@@ -22362,10 +22353,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -22391,14 +22382,14 @@
         <v>195</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -22411,7 +22402,7 @@
         <v>82</v>
       </c>
       <c r="T155" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="U155" t="s" s="2">
         <v>82</v>
@@ -22447,7 +22438,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -22468,7 +22459,7 @@
         <v>82</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>82</v>
@@ -22477,7 +22468,7 @@
         <v>82</v>
       </c>
       <c r="AP155" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AQ155" t="s" s="2">
         <v>82</v>
@@ -22485,10 +22476,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -22514,14 +22505,14 @@
         <v>180</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -22549,10 +22540,10 @@
         <v>183</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -22570,7 +22561,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -22591,16 +22582,16 @@
         <v>82</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="AP156" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="AQ156" t="s" s="2">
         <v>82</v>
@@ -22608,10 +22599,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -22729,10 +22720,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22852,10 +22843,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22977,10 +22968,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -23098,10 +23089,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -23221,10 +23212,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -23323,7 +23314,7 @@
         <v>104</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>82</v>
@@ -23346,10 +23337,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -23469,10 +23460,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -23569,7 +23560,7 @@
         <v>104</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>82</v>
@@ -23592,10 +23583,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23677,7 +23668,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -23692,22 +23683,22 @@
         <v>104</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM165" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP165" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN165" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO165" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP165" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AQ165" t="s" s="2">
         <v>82</v>
@@ -23715,10 +23706,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23741,19 +23732,19 @@
         <v>93</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L166" t="s" s="2">
+      <c r="M166" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N166" t="s" s="2">
+      <c r="O166" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -23802,7 +23793,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -23823,16 +23814,16 @@
         <v>82</v>
       </c>
       <c r="AM166" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP166" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN166" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO166" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP166" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AQ166" t="s" s="2">
         <v>82</v>
@@ -23840,10 +23831,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23869,16 +23860,16 @@
         <v>252</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N167" t="s" s="2">
+      <c r="O167" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -23927,7 +23918,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -23948,16 +23939,16 @@
         <v>82</v>
       </c>
       <c r="AM167" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP167" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN167" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO167" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP167" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AQ167" t="s" s="2">
         <v>82</v>
@@ -23965,10 +23956,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23991,19 +23982,19 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="O168" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
@@ -24040,17 +24031,17 @@
         <v>82</v>
       </c>
       <c r="AB168" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AC168" s="2"/>
       <c r="AD168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -24071,7 +24062,7 @@
         <v>82</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>82</v>
@@ -24080,7 +24071,7 @@
         <v>157</v>
       </c>
       <c r="AP168" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AQ168" t="s" s="2">
         <v>82</v>
@@ -24088,13 +24079,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>82</v>
@@ -24116,19 +24107,19 @@
         <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L169" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="O169" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -24177,7 +24168,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -24198,7 +24189,7 @@
         <v>82</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>82</v>
@@ -24207,7 +24198,7 @@
         <v>157</v>
       </c>
       <c r="AP169" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AQ169" t="s" s="2">
         <v>82</v>
@@ -24215,13 +24206,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>82</v>
@@ -24243,19 +24234,19 @@
         <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="O170" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>791</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -24304,7 +24295,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -24325,7 +24316,7 @@
         <v>82</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>82</v>
@@ -24334,7 +24325,7 @@
         <v>157</v>
       </c>
       <c r="AP170" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AQ170" t="s" s="2">
         <v>82</v>
@@ -24342,10 +24333,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -24368,19 +24359,19 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="N171" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>804</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -24429,7 +24420,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -24450,16 +24441,16 @@
         <v>82</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>157</v>
       </c>
       <c r="AP171" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AQ171" t="s" s="2">
         <v>82</v>
@@ -24467,10 +24458,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -24493,19 +24484,19 @@
         <v>82</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="N172" t="s" s="2">
         <v>809</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>810</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -24554,7 +24545,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -24566,7 +24557,7 @@
         <v>82</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>82</v>
@@ -24575,7 +24566,7 @@
         <v>82</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>82</v>
@@ -24592,10 +24583,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -24713,10 +24704,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24836,14 +24827,14 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
@@ -24865,10 +24856,10 @@
         <v>139</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>163</v>
@@ -24923,7 +24914,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24961,10 +24952,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24990,14 +24981,14 @@
         <v>180</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -25025,10 +25016,10 @@
         <v>183</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -25046,7 +25037,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -25076,7 +25067,7 @@
         <v>157</v>
       </c>
       <c r="AP176" t="s" s="2">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="AQ176" t="s" s="2">
         <v>82</v>
@@ -25084,10 +25075,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -25205,10 +25196,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -25328,10 +25319,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -25453,10 +25444,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -25574,10 +25565,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25697,10 +25688,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -25799,7 +25790,7 @@
         <v>104</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="AL182" t="s" s="2">
         <v>82</v>
@@ -25822,10 +25813,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25945,10 +25936,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -26045,7 +26036,7 @@
         <v>104</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>82</v>
@@ -26068,10 +26059,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -26153,7 +26144,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -26168,22 +26159,22 @@
         <v>104</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="AL185" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM185" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP185" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP185" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AQ185" t="s" s="2">
         <v>82</v>
@@ -26191,10 +26182,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -26217,19 +26208,19 @@
         <v>93</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L186" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -26278,7 +26269,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -26299,16 +26290,16 @@
         <v>82</v>
       </c>
       <c r="AM186" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AN186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP186" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AN186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP186" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AQ186" t="s" s="2">
         <v>82</v>
@@ -26316,10 +26307,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -26345,16 +26336,16 @@
         <v>252</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -26403,7 +26394,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -26424,16 +26415,16 @@
         <v>82</v>
       </c>
       <c r="AM187" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP187" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN187" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO187" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP187" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AQ187" t="s" s="2">
         <v>82</v>
@@ -26441,10 +26432,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -26467,17 +26458,17 @@
         <v>82</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>82</v>
@@ -26526,7 +26517,7 @@
         <v>82</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -26535,7 +26526,7 @@
         <v>92</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>104</v>
@@ -26547,7 +26538,7 @@
         <v>82</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>82</v>
@@ -26556,7 +26547,7 @@
         <v>157</v>
       </c>
       <c r="AP188" t="s" s="2">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AQ188" t="s" s="2">
         <v>82</v>
@@ -26564,10 +26555,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -26685,10 +26676,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26808,10 +26799,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26837,16 +26828,16 @@
         <v>112</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O191" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>82</v>
@@ -26874,10 +26865,10 @@
         <v>116</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Z191" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AA191" t="s" s="2">
         <v>82</v>
@@ -26895,7 +26886,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -26916,7 +26907,7 @@
         <v>82</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>82</v>
@@ -26925,7 +26916,7 @@
         <v>82</v>
       </c>
       <c r="AP191" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="AQ191" t="s" s="2">
         <v>82</v>
@@ -26933,10 +26924,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26962,16 +26953,16 @@
         <v>252</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O192" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -27020,7 +27011,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -27041,7 +27032,7 @@
         <v>82</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>82</v>
@@ -27050,7 +27041,7 @@
         <v>82</v>
       </c>
       <c r="AP192" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AQ192" t="s" s="2">
         <v>82</v>
@@ -27058,14 +27049,14 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
@@ -27087,13 +27078,13 @@
         <v>252</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -27143,7 +27134,7 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -27158,13 +27149,13 @@
         <v>104</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AL193" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AN193" t="s" s="2">
         <v>82</v>
@@ -27173,7 +27164,7 @@
         <v>82</v>
       </c>
       <c r="AP193" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AQ193" t="s" s="2">
         <v>82</v>
@@ -27181,14 +27172,14 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
@@ -27210,13 +27201,13 @@
         <v>252</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -27266,7 +27257,7 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -27281,13 +27272,13 @@
         <v>104</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="AL194" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>82</v>
@@ -27296,7 +27287,7 @@
         <v>82</v>
       </c>
       <c r="AP194" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AQ194" t="s" s="2">
         <v>82</v>
@@ -27304,10 +27295,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -27333,10 +27324,10 @@
         <v>252</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -27387,7 +27378,7 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -27408,7 +27399,7 @@
         <v>82</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AN195" t="s" s="2">
         <v>82</v>
@@ -27417,7 +27408,7 @@
         <v>82</v>
       </c>
       <c r="AP195" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AQ195" t="s" s="2">
         <v>82</v>
@@ -27425,10 +27416,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -27454,10 +27445,10 @@
         <v>252</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -27508,7 +27499,7 @@
         <v>82</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>80</v>
@@ -27529,7 +27520,7 @@
         <v>82</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>82</v>
@@ -27538,7 +27529,7 @@
         <v>82</v>
       </c>
       <c r="AP196" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AQ196" t="s" s="2">
         <v>82</v>
@@ -27546,10 +27537,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -27575,14 +27566,14 @@
         <v>195</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>82</v>
@@ -27631,7 +27622,7 @@
         <v>82</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>80</v>
@@ -27652,7 +27643,7 @@
         <v>82</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>82</v>
@@ -27661,7 +27652,7 @@
         <v>82</v>
       </c>
       <c r="AP197" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AQ197" t="s" s="2">
         <v>82</v>
@@ -27669,10 +27660,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27695,19 +27686,19 @@
         <v>82</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>82</v>
@@ -27756,7 +27747,7 @@
         <v>82</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -27765,7 +27756,7 @@
         <v>81</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>104</v>
@@ -27777,7 +27768,7 @@
         <v>82</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>82</v>
@@ -27786,7 +27777,7 @@
         <v>157</v>
       </c>
       <c r="AP198" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="AQ198" t="s" s="2">
         <v>82</v>
@@ -27794,10 +27785,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27915,10 +27906,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -28038,10 +28029,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -28067,10 +28058,10 @@
         <v>112</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -28100,49 +28091,49 @@
         <v>116</v>
       </c>
       <c r="Y201" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI201" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="Z201" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AG201" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH201" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI201" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="AL201" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>82</v>
@@ -28151,7 +28142,7 @@
         <v>82</v>
       </c>
       <c r="AP201" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AQ201" t="s" s="2">
         <v>82</v>
@@ -28159,10 +28150,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -28188,16 +28179,16 @@
         <v>252</v>
       </c>
       <c r="L202" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O202" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>82</v>
@@ -28246,7 +28237,7 @@
         <v>82</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -28255,19 +28246,19 @@
         <v>92</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AN202" t="s" s="2">
         <v>82</v>
@@ -28276,7 +28267,7 @@
         <v>82</v>
       </c>
       <c r="AP202" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AQ202" t="s" s="2">
         <v>82</v>
@@ -28284,10 +28275,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -28313,16 +28304,16 @@
         <v>112</v>
       </c>
       <c r="L203" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O203" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>82</v>
@@ -28350,10 +28341,10 @@
         <v>116</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="Z203" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AA203" t="s" s="2">
         <v>82</v>
@@ -28371,7 +28362,7 @@
         <v>82</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
@@ -28386,13 +28377,13 @@
         <v>104</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="AL203" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>82</v>
@@ -28401,7 +28392,7 @@
         <v>82</v>
       </c>
       <c r="AP203" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AQ203" t="s" s="2">
         <v>82</v>
@@ -28409,10 +28400,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -28435,16 +28426,16 @@
         <v>93</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N204" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
@@ -28494,7 +28485,7 @@
         <v>82</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -28532,10 +28523,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -28561,10 +28552,10 @@
         <v>195</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -28615,7 +28606,7 @@
         <v>82</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -28636,7 +28627,7 @@
         <v>82</v>
       </c>
       <c r="AM205" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AN205" t="s" s="2">
         <v>82</v>
@@ -28653,10 +28644,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28679,19 +28670,19 @@
         <v>82</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N206" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="L206" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>642</v>
-      </c>
       <c r="O206" t="s" s="2">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>82</v>
@@ -28740,7 +28731,7 @@
         <v>82</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
@@ -28752,7 +28743,7 @@
         <v>82</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>82</v>
@@ -28761,7 +28752,7 @@
         <v>82</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AN206" t="s" s="2">
         <v>82</v>
@@ -28770,7 +28761,7 @@
         <v>82</v>
       </c>
       <c r="AP206" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AQ206" t="s" s="2">
         <v>82</v>
@@ -28778,10 +28769,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28899,10 +28890,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -29022,10 +29013,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -29051,16 +29042,16 @@
         <v>112</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="N209" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="O209" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>82</v>
@@ -29073,7 +29064,7 @@
         <v>82</v>
       </c>
       <c r="T209" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="U209" t="s" s="2">
         <v>82</v>
@@ -29088,10 +29079,10 @@
         <v>116</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>82</v>
@@ -29109,7 +29100,7 @@
         <v>82</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -29124,13 +29115,13 @@
         <v>104</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>82</v>
@@ -29139,7 +29130,7 @@
         <v>82</v>
       </c>
       <c r="AP209" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AQ209" t="s" s="2">
         <v>82</v>
@@ -29147,10 +29138,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -29176,13 +29167,13 @@
         <v>112</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -29196,7 +29187,7 @@
         <v>82</v>
       </c>
       <c r="T210" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="U210" t="s" s="2">
         <v>82</v>
@@ -29211,10 +29202,10 @@
         <v>116</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>82</v>
@@ -29232,7 +29223,7 @@
         <v>82</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -29253,7 +29244,7 @@
         <v>82</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>82</v>
@@ -29262,7 +29253,7 @@
         <v>82</v>
       </c>
       <c r="AP210" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AQ210" t="s" s="2">
         <v>82</v>
@@ -29270,10 +29261,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -29299,16 +29290,16 @@
         <v>252</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>82</v>
@@ -29321,7 +29312,7 @@
         <v>82</v>
       </c>
       <c r="T211" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="U211" t="s" s="2">
         <v>82</v>
@@ -29357,7 +29348,7 @@
         <v>82</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -29372,13 +29363,13 @@
         <v>104</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="AL211" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AN211" t="s" s="2">
         <v>82</v>
@@ -29387,7 +29378,7 @@
         <v>82</v>
       </c>
       <c r="AP211" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AQ211" t="s" s="2">
         <v>82</v>
@@ -29395,10 +29386,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -29424,10 +29415,10 @@
         <v>252</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -29442,7 +29433,7 @@
         <v>82</v>
       </c>
       <c r="T212" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="U212" t="s" s="2">
         <v>82</v>
@@ -29478,7 +29469,7 @@
         <v>82</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -29493,13 +29484,13 @@
         <v>104</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM212" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="AN212" t="s" s="2">
         <v>82</v>
@@ -29508,7 +29499,7 @@
         <v>82</v>
       </c>
       <c r="AP212" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="AQ212" t="s" s="2">
         <v>82</v>
@@ -29516,10 +29507,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -29545,10 +29536,10 @@
         <v>252</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -29637,10 +29628,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -29756,13 +29747,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D215" t="s" s="2">
         <v>82</v>
@@ -29784,13 +29775,13 @@
         <v>82</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -29862,7 +29853,7 @@
         <v>82</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AN215" t="s" s="2">
         <v>82</v>
@@ -29879,13 +29870,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D216" t="s" s="2">
         <v>82</v>
@@ -29907,13 +29898,13 @@
         <v>82</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -29985,7 +29976,7 @@
         <v>82</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>82</v>
@@ -30002,13 +29993,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>82</v>
@@ -30030,13 +30021,13 @@
         <v>82</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -30108,7 +30099,7 @@
         <v>82</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AN217" t="s" s="2">
         <v>82</v>
@@ -30125,13 +30116,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>82</v>
@@ -30153,13 +30144,13 @@
         <v>82</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -30248,10 +30239,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -30277,10 +30268,10 @@
         <v>252</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -30304,7 +30295,7 @@
         <v>82</v>
       </c>
       <c r="W219" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="X219" t="s" s="2">
         <v>82</v>
@@ -30331,7 +30322,7 @@
         <v>82</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -30369,14 +30360,14 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
@@ -30398,10 +30389,10 @@
         <v>252</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -30416,7 +30407,7 @@
         <v>82</v>
       </c>
       <c r="T220" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="U220" t="s" s="2">
         <v>82</v>
@@ -30452,7 +30443,7 @@
         <v>82</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -30467,13 +30458,13 @@
         <v>104</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AL220" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>82</v>
@@ -30482,7 +30473,7 @@
         <v>82</v>
       </c>
       <c r="AP220" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AQ220" t="s" s="2">
         <v>82</v>
@@ -30490,14 +30481,14 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
@@ -30519,13 +30510,13 @@
         <v>252</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
@@ -30539,7 +30530,7 @@
         <v>82</v>
       </c>
       <c r="T221" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="U221" t="s" s="2">
         <v>82</v>
@@ -30575,7 +30566,7 @@
         <v>82</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -30596,7 +30587,7 @@
         <v>82</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="AN221" t="s" s="2">
         <v>82</v>
@@ -30605,7 +30596,7 @@
         <v>82</v>
       </c>
       <c r="AP221" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="AQ221" t="s" s="2">
         <v>82</v>
@@ -30613,14 +30604,14 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
@@ -30642,10 +30633,10 @@
         <v>252</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -30696,7 +30687,7 @@
         <v>82</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>80</v>
@@ -30711,13 +30702,13 @@
         <v>104</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AL222" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>82</v>
@@ -30726,7 +30717,7 @@
         <v>82</v>
       </c>
       <c r="AP222" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="AQ222" t="s" s="2">
         <v>82</v>
@@ -30734,14 +30725,14 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
@@ -30763,10 +30754,10 @@
         <v>252</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -30781,7 +30772,7 @@
         <v>82</v>
       </c>
       <c r="T223" t="s" s="2">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="U223" t="s" s="2">
         <v>82</v>
@@ -30817,7 +30808,7 @@
         <v>82</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>80</v>
@@ -30832,13 +30823,13 @@
         <v>104</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="AL223" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AN223" t="s" s="2">
         <v>82</v>
@@ -30847,7 +30838,7 @@
         <v>82</v>
       </c>
       <c r="AP223" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="AQ223" t="s" s="2">
         <v>82</v>
@@ -30855,10 +30846,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -30884,13 +30875,13 @@
         <v>252</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
@@ -30940,7 +30931,7 @@
         <v>82</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>80</v>
@@ -30955,13 +30946,13 @@
         <v>104</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="AL224" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AN224" t="s" s="2">
         <v>82</v>
@@ -30970,7 +30961,7 @@
         <v>82</v>
       </c>
       <c r="AP224" t="s" s="2">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="AQ224" t="s" s="2">
         <v>82</v>
@@ -30978,10 +30969,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -31007,14 +30998,14 @@
         <v>195</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>82</v>
@@ -31027,7 +31018,7 @@
         <v>82</v>
       </c>
       <c r="T225" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="U225" t="s" s="2">
         <v>82</v>
@@ -31063,7 +31054,7 @@
         <v>82</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>80</v>
@@ -31084,7 +31075,7 @@
         <v>82</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AN225" t="s" s="2">
         <v>82</v>
@@ -31093,7 +31084,7 @@
         <v>82</v>
       </c>
       <c r="AP225" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AQ225" t="s" s="2">
         <v>82</v>
@@ -31101,10 +31092,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -31130,14 +31121,14 @@
         <v>112</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>82</v>
@@ -31165,10 +31156,10 @@
         <v>116</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Z226" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>82</v>
@@ -31186,7 +31177,7 @@
         <v>82</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>80</v>
@@ -31207,7 +31198,7 @@
         <v>82</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AN226" t="s" s="2">
         <v>82</v>
@@ -31216,7 +31207,7 @@
         <v>157</v>
       </c>
       <c r="AP226" t="s" s="2">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="AQ226" t="s" s="2">
         <v>82</v>
@@ -31224,10 +31215,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -31253,10 +31244,10 @@
         <v>252</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -31345,10 +31336,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -31464,13 +31455,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D229" t="s" s="2">
         <v>82</v>
@@ -31492,13 +31483,13 @@
         <v>82</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -31587,10 +31578,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -31616,10 +31607,10 @@
         <v>112</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -31670,7 +31661,7 @@
         <v>82</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>80</v>
@@ -31708,10 +31699,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31737,14 +31728,14 @@
         <v>268</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>82</v>
@@ -31793,7 +31784,7 @@
         <v>82</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>80</v>
@@ -31802,19 +31793,19 @@
         <v>92</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="AJ231" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM231" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="AN231" t="s" s="2">
         <v>82</v>
@@ -31823,7 +31814,7 @@
         <v>157</v>
       </c>
       <c r="AP231" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="AQ231" t="s" s="2">
         <v>82</v>
@@ -31831,10 +31822,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31860,10 +31851,10 @@
         <v>195</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -31914,7 +31905,7 @@
         <v>82</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>80</v>
@@ -31935,7 +31926,7 @@
         <v>82</v>
       </c>
       <c r="AM232" t="s" s="2">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="AN232" t="s" s="2">
         <v>82</v>
@@ -31952,10 +31943,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31978,19 +31969,19 @@
         <v>82</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="N233" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="O233" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>925</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>927</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>82</v>
@@ -32039,7 +32030,7 @@
         <v>82</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>80</v>
@@ -32060,13 +32051,13 @@
         <v>82</v>
       </c>
       <c r="AM233" t="s" s="2">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="AO233" t="s" s="2">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="AP233" t="s" s="2">
         <v>82</v>
@@ -32077,10 +32068,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -32198,10 +32189,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -32321,14 +32312,14 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" t="s" s="2">
@@ -32350,10 +32341,10 @@
         <v>139</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="N236" t="s" s="2">
         <v>163</v>
@@ -32408,7 +32399,7 @@
         <v>82</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>80</v>
@@ -32446,10 +32437,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -32475,16 +32466,16 @@
         <v>180</v>
       </c>
       <c r="L237" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="O237" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>937</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>938</v>
       </c>
       <c r="P237" t="s" s="2">
         <v>82</v>
@@ -32533,7 +32524,7 @@
         <v>82</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>92</v>
@@ -32548,22 +32539,22 @@
         <v>104</v>
       </c>
       <c r="AK237" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="AL237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM237" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="AN237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO237" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="AP237" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="AL237" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM237" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="AN237" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO237" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="AP237" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="AQ237" t="s" s="2">
         <v>82</v>
@@ -32571,10 +32562,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -32597,19 +32588,19 @@
         <v>82</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L238" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="O238" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="M238" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="O238" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="P238" t="s" s="2">
         <v>82</v>
@@ -32658,7 +32649,7 @@
         <v>82</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>80</v>
@@ -32673,22 +32664,22 @@
         <v>104</v>
       </c>
       <c r="AK238" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="AL238" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM238" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="AN238" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO238" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="AP238" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="AL238" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM238" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="AN238" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO238" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="AP238" t="s" s="2">
-        <v>951</v>
       </c>
       <c r="AQ238" t="s" s="2">
         <v>82</v>
@@ -32696,14 +32687,14 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
@@ -32722,16 +32713,16 @@
         <v>82</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="N239" t="s" s="2">
         <v>954</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>955</v>
-      </c>
-      <c r="M239" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="N239" t="s" s="2">
-        <v>957</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" t="s" s="2">
@@ -32781,7 +32772,7 @@
         <v>82</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>80</v>
@@ -32796,13 +32787,13 @@
         <v>104</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="AL239" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM239" t="s" s="2">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="AN239" t="s" s="2">
         <v>82</v>
@@ -32811,7 +32802,7 @@
         <v>157</v>
       </c>
       <c r="AP239" t="s" s="2">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="AQ239" t="s" s="2">
         <v>82</v>
@@ -32819,10 +32810,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32848,16 +32839,16 @@
         <v>268</v>
       </c>
       <c r="L240" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="O240" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>963</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>964</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>82</v>
@@ -32906,7 +32897,7 @@
         <v>82</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>80</v>
@@ -32921,19 +32912,19 @@
         <v>104</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="AL240" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="AN240" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO240" t="s" s="2">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="AP240" t="s" s="2">
         <v>82</v>
@@ -32944,10 +32935,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -32970,19 +32961,19 @@
         <v>93</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="L241" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="O241" t="s" s="2">
         <v>969</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>970</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>971</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>972</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>82</v>
@@ -33031,7 +33022,7 @@
         <v>82</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>80</v>
@@ -33052,7 +33043,7 @@
         <v>82</v>
       </c>
       <c r="AM241" t="s" s="2">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="AN241" t="s" s="2">
         <v>82</v>
@@ -33069,10 +33060,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -33190,10 +33181,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -33313,14 +33304,14 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" t="s" s="2">
@@ -33342,10 +33333,10 @@
         <v>139</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="N244" t="s" s="2">
         <v>163</v>
@@ -33400,7 +33391,7 @@
         <v>82</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>80</v>
@@ -33438,10 +33429,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -33464,16 +33455,16 @@
         <v>93</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="O245" s="2"/>
       <c r="P245" t="s" s="2">
@@ -33523,7 +33514,7 @@
         <v>82</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>92</v>
@@ -33553,7 +33544,7 @@
         <v>157</v>
       </c>
       <c r="AP245" t="s" s="2">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="AQ245" t="s" s="2">
         <v>82</v>
@@ -33561,10 +33552,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -33590,10 +33581,10 @@
         <v>112</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -33623,10 +33614,10 @@
         <v>116</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="AA246" t="s" s="2">
         <v>82</v>
@@ -33644,7 +33635,7 @@
         <v>82</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>92</v>
@@ -33665,7 +33656,7 @@
         <v>82</v>
       </c>
       <c r="AM246" t="s" s="2">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="AN246" t="s" s="2">
         <v>82</v>

--- a/r5-core-main/StructureDefinition-at-core-patient.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T10:39:13+00:00</t>
+    <t>2024-10-16T09:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1997,7 +1997,7 @@
 The ISO21090-codedString may be used to provide a coded representation of the contents of strings in an Address.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R5/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>
